--- a/public/temp/sentiment.xlsx
+++ b/public/temp/sentiment.xlsx
@@ -11,63 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>UserId</t>
   </si>
   <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
     <t>ProductId</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
     <t>Rating</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>"661cb4023db886b57a6e23ce"</t>
-  </si>
-  <si>
-    <t>"661e8e740d250cabe1608d15"</t>
+    <t>661cb4023db886b57a6e23ce</t>
+  </si>
+  <si>
+    <t>tirth</t>
+  </si>
+  <si>
+    <t>tirthesh</t>
+  </si>
+  <si>
+    <t>khandare</t>
+  </si>
+  <si>
+    <t>661e8e740d250cabe1608d15</t>
+  </si>
+  <si>
+    <t>Creatine Monohydrate</t>
   </si>
   <si>
     <t>Good product nice to buy</t>
   </si>
   <si>
-    <t>"661e8fd10d250cabe1608d29"</t>
+    <t>661e8fd10d250cabe1608d29</t>
+  </si>
+  <si>
+    <t>Whey Protein Powder</t>
   </si>
   <si>
     <t>Bad product don't buy please money waste</t>
   </si>
   <si>
-    <t>"661e9311233d87de1469a2e4"</t>
+    <t>661e9311233d87de1469a2e4</t>
+  </si>
+  <si>
+    <t>Fish Oil Capsules</t>
   </si>
   <si>
     <t>Ok product not bad</t>
   </si>
   <si>
-    <t>"661cba853db886b57a6e2670"</t>
-  </si>
-  <si>
-    <t>"661e923b233d87de1469a2d2"</t>
+    <t>661cba853db886b57a6e2670</t>
+  </si>
+  <si>
+    <t>yashkharte</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Kharte</t>
+  </si>
+  <si>
+    <t>661e923b233d87de1469a2d2</t>
+  </si>
+  <si>
+    <t>BCAA (Branched-Chain Amino Acids)</t>
   </si>
   <si>
     <t>Better quality for price</t>
   </si>
   <si>
-    <t>"661e95d3e10bb0256b750612"</t>
+    <t>661e95d3e10bb0256b750612</t>
+  </si>
+  <si>
+    <t>Multivitamin for Athletes</t>
   </si>
   <si>
     <t>Nice one worth it</t>
   </si>
   <si>
-    <t>"661e933c233d87de1469a2e6"</t>
+    <t>661e933c233d87de1469a2e6</t>
+  </si>
+  <si>
+    <t>Peanut Butter Protein Powder</t>
   </si>
   <si>
     <t xml:space="preserve">Absolutely disgusting </t>
   </si>
   <si>
-    <t>"661fa5fbd735e63b5f61d77c"</t>
+    <t>661fa5fbd735e63b5f61d77c</t>
+  </si>
+  <si>
+    <t>Protein Shake Ready-to-Drink (RTD)</t>
   </si>
   <si>
     <t xml:space="preserve">Soothing drink very excellent </t>
@@ -447,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,103 +519,199 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="H6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="H8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
